--- a/늪논문/1번: 피어슨 선형회귀분석(노인비율VS의원비율)/없는_의원목록.xlsx
+++ b/늪논문/1번: 피어슨 선형회귀분석(노인비율VS의원비율)/없는_의원목록.xlsx
@@ -19,124 +19,124 @@
     <t>없는 요양기관명</t>
   </si>
   <si>
+    <t>정시전내과의원</t>
+  </si>
+  <si>
+    <t>365열린사랑의원</t>
+  </si>
+  <si>
     <t>이성호가정의학과의원</t>
   </si>
   <si>
+    <t>이종열가정의학과의원</t>
+  </si>
+  <si>
+    <t>삼성연합내과의원</t>
+  </si>
+  <si>
+    <t>장규만내과의원</t>
+  </si>
+  <si>
+    <t>구성모내과의원</t>
+  </si>
+  <si>
+    <t>위생내과의원</t>
+  </si>
+  <si>
+    <t>베스트이내과의원</t>
+  </si>
+  <si>
+    <t>김앤유이비인후과가정의학과연합의원</t>
+  </si>
+  <si>
+    <t>플로리다의원</t>
+  </si>
+  <si>
+    <t>김명수내과의원</t>
+  </si>
+  <si>
+    <t>정태훈내과의원</t>
+  </si>
+  <si>
+    <t>중앙메디칼연합의원</t>
+  </si>
+  <si>
+    <t>바른가정의학과의원</t>
+  </si>
+  <si>
+    <t>전자랜드의원</t>
+  </si>
+  <si>
+    <t>안민의원</t>
+  </si>
+  <si>
+    <t>강호정내과의원</t>
+  </si>
+  <si>
+    <t>이성웅외과의원</t>
+  </si>
+  <si>
+    <t>호매실연합의원</t>
+  </si>
+  <si>
+    <t>영덕파티마마취통증의학과의원</t>
+  </si>
+  <si>
+    <t>홍관식내과의원</t>
+  </si>
+  <si>
+    <t>한의정소아청소년과의원</t>
+  </si>
+  <si>
+    <t>화명의원</t>
+  </si>
+  <si>
+    <t>연세속시원연합내과의원</t>
+  </si>
+  <si>
+    <t>아야알러리스가정의학과의원</t>
+  </si>
+  <si>
+    <t>호원제일의원</t>
+  </si>
+  <si>
+    <t>광교임의원</t>
+  </si>
+  <si>
+    <t>이준석내과의원</t>
+  </si>
+  <si>
     <t>김종주의행복의원</t>
   </si>
   <si>
-    <t>삼성연합내과의원</t>
-  </si>
-  <si>
-    <t>아야알러리스가정의학과의원</t>
-  </si>
-  <si>
-    <t>위생내과의원</t>
-  </si>
-  <si>
-    <t>김명수내과의원</t>
-  </si>
-  <si>
-    <t>이성웅외과의원</t>
-  </si>
-  <si>
-    <t>정태훈내과의원</t>
-  </si>
-  <si>
-    <t>플로리다의원</t>
-  </si>
-  <si>
-    <t>광교임의원</t>
-  </si>
-  <si>
-    <t>이종열가정의학과의원</t>
-  </si>
-  <si>
-    <t>한의정소아청소년과의원</t>
-  </si>
-  <si>
-    <t>이준석내과의원</t>
+    <t>빈중선내과의원</t>
+  </si>
+  <si>
+    <t>최경훈내과의원</t>
+  </si>
+  <si>
+    <t>서현의료소비자생활협동조합중랑제일의원</t>
+  </si>
+  <si>
+    <t>OK(오케이)하트내과의원</t>
+  </si>
+  <si>
+    <t>황인섭내과의원</t>
   </si>
   <si>
     <t>최대홍내과의원</t>
   </si>
   <si>
-    <t>중앙메디칼연합의원</t>
-  </si>
-  <si>
-    <t>최경훈내과의원</t>
-  </si>
-  <si>
-    <t>365열린사랑의원</t>
-  </si>
-  <si>
-    <t>강호정내과의원</t>
-  </si>
-  <si>
-    <t>장규만내과의원</t>
-  </si>
-  <si>
-    <t>빈중선내과의원</t>
-  </si>
-  <si>
-    <t>안민의원</t>
-  </si>
-  <si>
-    <t>서현의료소비자생활협동조합중랑제일의원</t>
-  </si>
-  <si>
-    <t>화명의원</t>
-  </si>
-  <si>
-    <t>구성모내과의원</t>
-  </si>
-  <si>
-    <t>홍관식내과의원</t>
-  </si>
-  <si>
-    <t>호매실연합의원</t>
-  </si>
-  <si>
-    <t>바른가정의학과의원</t>
-  </si>
-  <si>
-    <t>김앤유이비인후과가정의학과연합의원</t>
-  </si>
-  <si>
-    <t>베스트이내과의원</t>
-  </si>
-  <si>
-    <t>영덕파티마마취통증의학과의원</t>
+    <t>미즈아이의원</t>
+  </si>
+  <si>
+    <t>중앙1내과의원</t>
+  </si>
+  <si>
+    <t>이앤문내과의원</t>
   </si>
   <si>
     <t>하서홍소아청소년과의원</t>
-  </si>
-  <si>
-    <t>연세속시원연합내과의원</t>
-  </si>
-  <si>
-    <t>중앙1내과의원</t>
-  </si>
-  <si>
-    <t>이앤문내과의원</t>
-  </si>
-  <si>
-    <t>황인섭내과의원</t>
-  </si>
-  <si>
-    <t>정시전내과의원</t>
-  </si>
-  <si>
-    <t>OK(오케이)하트내과의원</t>
-  </si>
-  <si>
-    <t>미즈아이의원</t>
-  </si>
-  <si>
-    <t>호원제일의원</t>
-  </si>
-  <si>
-    <t>전자랜드의원</t>
   </si>
 </sst>
 </file>
